--- a/source/fr_dc_age_sex/xlsx/2008_dc_age_sex_e.xlsx
+++ b/source/fr_dc_age_sex/xlsx/2008_dc_age_sex_e.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27217"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/workspaces/legco-data/source/fr_dc_age_sex/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="28680" windowHeight="14760"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Table 2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -2556,50 +2564,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t>Grand Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>63,505   315,205   141,087</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF33339A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>112,914   163,095   164,326</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF33339A"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>260,146   57,434</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>147,635   153,860   194,040   324,670</t>
     </r>
   </si>
   <si>
@@ -2999,7 +2963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3177,12 +3141,42 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3210,6 +3204,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -3223,92 +3223,67 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3597,88 +3572,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" style="60" customWidth="1"/>
+    <col min="8" max="8" width="6.3984375" customWidth="1"/>
+    <col min="9" max="9" width="6.19921875" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="93" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" customWidth="1"/>
-    <col min="19" max="19" width="5.33203125" customWidth="1"/>
-    <col min="20" max="20" width="7.1640625" style="93" customWidth="1"/>
+    <col min="11" max="11" width="7.19921875" customWidth="1"/>
+    <col min="12" max="12" width="6.3984375" customWidth="1"/>
+    <col min="13" max="13" width="7.3984375" customWidth="1"/>
+    <col min="14" max="14" width="8.3984375" style="60" customWidth="1"/>
+    <col min="15" max="15" width="7.796875" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" customWidth="1"/>
+    <col min="17" max="17" width="6.796875" customWidth="1"/>
+    <col min="18" max="18" width="7.3984375" customWidth="1"/>
+    <col min="19" max="19" width="5.3984375" customWidth="1"/>
+    <col min="20" max="20" width="7.19921875" style="60" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="23" width="6.1640625" customWidth="1"/>
+    <col min="22" max="23" width="6.19921875" customWidth="1"/>
     <col min="24" max="24" width="6" customWidth="1"/>
-    <col min="25" max="25" width="7.1640625" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="93" customWidth="1"/>
+    <col min="25" max="25" width="7.19921875" customWidth="1"/>
+    <col min="26" max="26" width="8.59765625" style="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="61" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="61" t="s">
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="94" t="s">
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="80" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
+    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3748,14 +3723,14 @@
       <c r="Y2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="95"/>
+      <c r="Z2" s="81"/>
     </row>
-    <row r="3" spans="1:26" ht="8" customHeight="1">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>155</v>
+      <c r="B3" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="12">
         <v>1234</v>
@@ -3769,7 +3744,7 @@
       <c r="F3" s="15">
         <v>1818</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="86" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="16">
@@ -3781,7 +3756,7 @@
       <c r="J3" s="18">
         <v>1972</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="88" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="12">
@@ -3790,7 +3765,7 @@
       <c r="M3" s="19">
         <v>4484</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="86" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="16">
@@ -3808,7 +3783,7 @@
       <c r="S3" s="21">
         <v>833</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="86" t="s">
         <v>31</v>
       </c>
       <c r="U3" s="12">
@@ -3823,16 +3798,16 @@
       <c r="X3" s="15">
         <v>5181</v>
       </c>
-      <c r="Y3" s="74" t="s">
+      <c r="Y3" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="96" t="s">
+      <c r="Z3" s="90" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="8" customHeight="1">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73"/>
+    <row r="4" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="83"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="23">
         <v>1244</v>
       </c>
@@ -3845,7 +3820,7 @@
       <c r="F4" s="26">
         <v>1746</v>
       </c>
-      <c r="G4" s="91"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="27">
         <v>1195</v>
       </c>
@@ -3855,14 +3830,14 @@
       <c r="J4" s="29">
         <v>1794</v>
       </c>
-      <c r="K4" s="75"/>
+      <c r="K4" s="89"/>
       <c r="L4" s="23">
         <v>3490</v>
       </c>
       <c r="M4" s="30">
         <v>4447</v>
       </c>
-      <c r="N4" s="91"/>
+      <c r="N4" s="87"/>
       <c r="O4" s="27">
         <v>1718</v>
       </c>
@@ -3878,7 +3853,7 @@
       <c r="S4" s="32">
         <v>823</v>
       </c>
-      <c r="T4" s="91"/>
+      <c r="T4" s="87"/>
       <c r="U4" s="23">
         <v>3339</v>
       </c>
@@ -3891,14 +3866,14 @@
       <c r="X4" s="26">
         <v>5161</v>
       </c>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="97"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="91"/>
     </row>
-    <row r="5" spans="1:26" ht="8" customHeight="1">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="77"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="34">
         <v>2478</v>
       </c>
@@ -3968,16 +3943,16 @@
       <c r="Y5" s="44">
         <v>30500</v>
       </c>
-      <c r="Z5" s="98">
+      <c r="Z5" s="61">
         <v>102058</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="8" customHeight="1">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>155</v>
+      <c r="B6" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="C6" s="12">
         <v>2695</v>
@@ -3991,7 +3966,7 @@
       <c r="F6" s="15">
         <v>4038</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="86" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="16">
@@ -4003,7 +3978,7 @@
       <c r="J6" s="18">
         <v>3841</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="88" t="s">
         <v>37</v>
       </c>
       <c r="L6" s="12">
@@ -4012,7 +3987,7 @@
       <c r="M6" s="19">
         <v>7998</v>
       </c>
-      <c r="N6" s="90" t="s">
+      <c r="N6" s="86" t="s">
         <v>38</v>
       </c>
       <c r="O6" s="16">
@@ -4030,7 +4005,7 @@
       <c r="S6" s="18">
         <v>1579</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="86" t="s">
         <v>39</v>
       </c>
       <c r="U6" s="12">
@@ -4045,16 +4020,16 @@
       <c r="X6" s="15">
         <v>10336</v>
       </c>
-      <c r="Y6" s="74" t="s">
+      <c r="Y6" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="96" t="s">
+      <c r="Z6" s="90" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="8" customHeight="1">
-      <c r="A7" s="71"/>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="83"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="23">
         <v>2608</v>
       </c>
@@ -4067,7 +4042,7 @@
       <c r="F7" s="26">
         <v>3905</v>
       </c>
-      <c r="G7" s="91"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="27">
         <v>2622</v>
       </c>
@@ -4077,14 +4052,14 @@
       <c r="J7" s="29">
         <v>3753</v>
       </c>
-      <c r="K7" s="75"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="23">
         <v>6059</v>
       </c>
       <c r="M7" s="30">
         <v>8354</v>
       </c>
-      <c r="N7" s="91"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="27">
         <v>3143</v>
       </c>
@@ -4100,7 +4075,7 @@
       <c r="S7" s="29">
         <v>1513</v>
       </c>
-      <c r="T7" s="91"/>
+      <c r="T7" s="87"/>
       <c r="U7" s="23">
         <v>5541</v>
       </c>
@@ -4113,14 +4088,14 @@
       <c r="X7" s="26">
         <v>9982</v>
       </c>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="97"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="91"/>
     </row>
-    <row r="8" spans="1:26" ht="8" customHeight="1">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="34">
         <v>5303</v>
       </c>
@@ -4190,16 +4165,16 @@
       <c r="Y8" s="44">
         <v>55419</v>
       </c>
-      <c r="Z8" s="98">
+      <c r="Z8" s="61">
         <v>194833</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="8" customHeight="1">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>156</v>
+      <c r="B9" s="84" t="s">
+        <v>152</v>
       </c>
       <c r="C9" s="12">
         <v>3660</v>
@@ -4213,7 +4188,7 @@
       <c r="F9" s="15">
         <v>4940</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="86" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="16">
@@ -4225,7 +4200,7 @@
       <c r="J9" s="18">
         <v>5306</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="88" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="12">
@@ -4234,7 +4209,7 @@
       <c r="M9" s="19">
         <v>10622</v>
       </c>
-      <c r="N9" s="90" t="s">
+      <c r="N9" s="86" t="s">
         <v>46</v>
       </c>
       <c r="O9" s="16">
@@ -4252,7 +4227,7 @@
       <c r="S9" s="18">
         <v>2033</v>
       </c>
-      <c r="T9" s="90" t="s">
+      <c r="T9" s="86" t="s">
         <v>47</v>
       </c>
       <c r="U9" s="12">
@@ -4267,16 +4242,16 @@
       <c r="X9" s="15">
         <v>13869</v>
       </c>
-      <c r="Y9" s="74" t="s">
+      <c r="Y9" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="Z9" s="96" t="s">
+      <c r="Z9" s="90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="8" customHeight="1">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
+    <row r="10" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="23">
         <v>3432</v>
       </c>
@@ -4289,7 +4264,7 @@
       <c r="F10" s="26">
         <v>4817</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="27">
         <v>4190</v>
       </c>
@@ -4299,14 +4274,14 @@
       <c r="J10" s="29">
         <v>5076</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="89"/>
       <c r="L10" s="23">
         <v>7744</v>
       </c>
       <c r="M10" s="30">
         <v>10978</v>
       </c>
-      <c r="N10" s="91"/>
+      <c r="N10" s="87"/>
       <c r="O10" s="27">
         <v>4821</v>
       </c>
@@ -4322,7 +4297,7 @@
       <c r="S10" s="29">
         <v>1971</v>
       </c>
-      <c r="T10" s="91"/>
+      <c r="T10" s="87"/>
       <c r="U10" s="23">
         <v>6059</v>
       </c>
@@ -4335,14 +4310,14 @@
       <c r="X10" s="26">
         <v>14265</v>
       </c>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="97"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="91"/>
     </row>
-    <row r="11" spans="1:26" ht="8" customHeight="1">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="34">
         <v>7092</v>
       </c>
@@ -4412,16 +4387,16 @@
       <c r="Y11" s="44">
         <v>66977</v>
       </c>
-      <c r="Z11" s="98">
+      <c r="Z11" s="61">
         <v>251530</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="8" customHeight="1">
-      <c r="A12" s="70" t="s">
+    <row r="12" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>157</v>
+      <c r="B12" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="12">
         <v>4631</v>
@@ -4435,7 +4410,7 @@
       <c r="F12" s="15">
         <v>5217</v>
       </c>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="86" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="16">
@@ -4447,7 +4422,7 @@
       <c r="J12" s="18">
         <v>6400</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="88" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="12">
@@ -4456,7 +4431,7 @@
       <c r="M12" s="19">
         <v>10814</v>
       </c>
-      <c r="N12" s="90" t="s">
+      <c r="N12" s="86" t="s">
         <v>54</v>
       </c>
       <c r="O12" s="16">
@@ -4474,7 +4449,7 @@
       <c r="S12" s="18">
         <v>2497</v>
       </c>
-      <c r="T12" s="90" t="s">
+      <c r="T12" s="86" t="s">
         <v>55</v>
       </c>
       <c r="U12" s="12">
@@ -4489,16 +4464,16 @@
       <c r="X12" s="15">
         <v>13252</v>
       </c>
-      <c r="Y12" s="74" t="s">
+      <c r="Y12" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="Z12" s="96" t="s">
+      <c r="Z12" s="90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="8" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
+    <row r="13" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="83"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="23">
         <v>4316</v>
       </c>
@@ -4511,7 +4486,7 @@
       <c r="F13" s="26">
         <v>5440</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="27">
         <v>5728</v>
       </c>
@@ -4521,14 +4496,14 @@
       <c r="J13" s="29">
         <v>6675</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="89"/>
       <c r="L13" s="23">
         <v>8587</v>
       </c>
       <c r="M13" s="30">
         <v>12113</v>
       </c>
-      <c r="N13" s="91"/>
+      <c r="N13" s="87"/>
       <c r="O13" s="27">
         <v>6557</v>
       </c>
@@ -4544,7 +4519,7 @@
       <c r="S13" s="29">
         <v>2425</v>
       </c>
-      <c r="T13" s="91"/>
+      <c r="T13" s="87"/>
       <c r="U13" s="23">
         <v>5091</v>
       </c>
@@ -4557,14 +4532,14 @@
       <c r="X13" s="26">
         <v>14308</v>
       </c>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="97"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="91"/>
     </row>
-    <row r="14" spans="1:26" ht="8" customHeight="1">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="77"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="34">
         <v>8947</v>
       </c>
@@ -4634,16 +4609,16 @@
       <c r="Y14" s="44">
         <v>66943</v>
       </c>
-      <c r="Z14" s="98">
+      <c r="Z14" s="61">
         <v>275459</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="8" customHeight="1">
-      <c r="A15" s="70" t="s">
+    <row r="15" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>157</v>
+      <c r="B15" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="12">
         <v>5063</v>
@@ -4657,7 +4632,7 @@
       <c r="F15" s="15">
         <v>5927</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="86" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="16">
@@ -4669,7 +4644,7 @@
       <c r="J15" s="18">
         <v>7239</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="88" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="12">
@@ -4678,7 +4653,7 @@
       <c r="M15" s="19">
         <v>11909</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="86" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="16">
@@ -4696,7 +4671,7 @@
       <c r="S15" s="18">
         <v>2877</v>
       </c>
-      <c r="T15" s="90" t="s">
+      <c r="T15" s="86" t="s">
         <v>63</v>
       </c>
       <c r="U15" s="12">
@@ -4711,16 +4686,16 @@
       <c r="X15" s="15">
         <v>12642</v>
       </c>
-      <c r="Y15" s="74" t="s">
+      <c r="Y15" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="Z15" s="96" t="s">
+      <c r="Z15" s="90" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="8" customHeight="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="73"/>
+    <row r="16" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="83"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="23">
         <v>4517</v>
       </c>
@@ -4733,7 +4708,7 @@
       <c r="F16" s="26">
         <v>5764</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="87"/>
       <c r="H16" s="27">
         <v>5611</v>
       </c>
@@ -4743,14 +4718,14 @@
       <c r="J16" s="29">
         <v>7217</v>
       </c>
-      <c r="K16" s="75"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="23">
         <v>9111</v>
       </c>
       <c r="M16" s="30">
         <v>12249</v>
       </c>
-      <c r="N16" s="91"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="27">
         <v>6723</v>
       </c>
@@ -4766,7 +4741,7 @@
       <c r="S16" s="29">
         <v>2706</v>
       </c>
-      <c r="T16" s="91"/>
+      <c r="T16" s="87"/>
       <c r="U16" s="23">
         <v>5520</v>
       </c>
@@ -4779,14 +4754,14 @@
       <c r="X16" s="26">
         <v>11414</v>
       </c>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="97"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="91"/>
     </row>
-    <row r="17" spans="1:26" ht="8" customHeight="1">
-      <c r="A17" s="76" t="s">
+    <row r="17" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="34">
         <v>9580</v>
       </c>
@@ -4856,16 +4831,16 @@
       <c r="Y17" s="44">
         <v>67161</v>
       </c>
-      <c r="Z17" s="98">
+      <c r="Z17" s="61">
         <v>283265</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="8" customHeight="1">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>158</v>
+      <c r="B18" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="C18" s="12">
         <v>6211</v>
@@ -4879,7 +4854,7 @@
       <c r="F18" s="15">
         <v>8133</v>
       </c>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="86" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="16">
@@ -4891,7 +4866,7 @@
       <c r="J18" s="18">
         <v>8710</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="88" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="12">
@@ -4900,7 +4875,7 @@
       <c r="M18" s="19">
         <v>15138</v>
       </c>
-      <c r="N18" s="90" t="s">
+      <c r="N18" s="86" t="s">
         <v>70</v>
       </c>
       <c r="O18" s="16">
@@ -4918,7 +4893,7 @@
       <c r="S18" s="18">
         <v>3685</v>
       </c>
-      <c r="T18" s="90" t="s">
+      <c r="T18" s="86" t="s">
         <v>71</v>
       </c>
       <c r="U18" s="12">
@@ -4933,16 +4908,16 @@
       <c r="X18" s="15">
         <v>18224</v>
       </c>
-      <c r="Y18" s="74" t="s">
+      <c r="Y18" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="Z18" s="96" t="s">
+      <c r="Z18" s="90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="8" customHeight="1">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73"/>
+    <row r="19" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="83"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="23">
         <v>5597</v>
       </c>
@@ -4955,7 +4930,7 @@
       <c r="F19" s="26">
         <v>7380</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="27">
         <v>5817</v>
       </c>
@@ -4965,14 +4940,14 @@
       <c r="J19" s="29">
         <v>8104</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="89"/>
       <c r="L19" s="23">
         <v>12525</v>
       </c>
       <c r="M19" s="30">
         <v>15409</v>
       </c>
-      <c r="N19" s="91"/>
+      <c r="N19" s="87"/>
       <c r="O19" s="27">
         <v>7780</v>
       </c>
@@ -4988,7 +4963,7 @@
       <c r="S19" s="29">
         <v>3658</v>
       </c>
-      <c r="T19" s="91"/>
+      <c r="T19" s="87"/>
       <c r="U19" s="23">
         <v>8311</v>
       </c>
@@ -5001,14 +4976,14 @@
       <c r="X19" s="26">
         <v>15707</v>
       </c>
-      <c r="Y19" s="75"/>
-      <c r="Z19" s="97"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="91"/>
     </row>
-    <row r="20" spans="1:26" ht="8" customHeight="1">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="77"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="34">
         <v>11808</v>
       </c>
@@ -5078,16 +5053,16 @@
       <c r="Y20" s="44">
         <v>93860</v>
       </c>
-      <c r="Z20" s="98">
+      <c r="Z20" s="61">
         <v>368056</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="8" customHeight="1">
-      <c r="A21" s="70" t="s">
+    <row r="21" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>156</v>
+      <c r="B21" s="84" t="s">
+        <v>152</v>
       </c>
       <c r="C21" s="12">
         <v>6940</v>
@@ -5101,7 +5076,7 @@
       <c r="F21" s="15">
         <v>9360</v>
       </c>
-      <c r="G21" s="90" t="s">
+      <c r="G21" s="86" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="16">
@@ -5113,7 +5088,7 @@
       <c r="J21" s="18">
         <v>9396</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="88" t="s">
         <v>77</v>
       </c>
       <c r="L21" s="12">
@@ -5122,7 +5097,7 @@
       <c r="M21" s="19">
         <v>17131</v>
       </c>
-      <c r="N21" s="90" t="s">
+      <c r="N21" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O21" s="16">
@@ -5140,7 +5115,7 @@
       <c r="S21" s="18">
         <v>3796</v>
       </c>
-      <c r="T21" s="90" t="s">
+      <c r="T21" s="86" t="s">
         <v>79</v>
       </c>
       <c r="U21" s="12">
@@ -5155,16 +5130,16 @@
       <c r="X21" s="15">
         <v>23132</v>
       </c>
-      <c r="Y21" s="74" t="s">
+      <c r="Y21" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="Z21" s="96" t="s">
+      <c r="Z21" s="90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="8" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="73"/>
+    <row r="22" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="83"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="23">
         <v>6797</v>
       </c>
@@ -5177,7 +5152,7 @@
       <c r="F22" s="26">
         <v>9079</v>
       </c>
-      <c r="G22" s="91"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="27">
         <v>6033</v>
       </c>
@@ -5187,14 +5162,14 @@
       <c r="J22" s="29">
         <v>9194</v>
       </c>
-      <c r="K22" s="75"/>
+      <c r="K22" s="89"/>
       <c r="L22" s="23">
         <v>15806</v>
       </c>
       <c r="M22" s="30">
         <v>17555</v>
       </c>
-      <c r="N22" s="91"/>
+      <c r="N22" s="87"/>
       <c r="O22" s="27">
         <v>8959</v>
       </c>
@@ -5210,7 +5185,7 @@
       <c r="S22" s="29">
         <v>4204</v>
       </c>
-      <c r="T22" s="91"/>
+      <c r="T22" s="87"/>
       <c r="U22" s="23">
         <v>11115</v>
       </c>
@@ -5223,14 +5198,14 @@
       <c r="X22" s="26">
         <v>21340</v>
       </c>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="97"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="91"/>
     </row>
-    <row r="23" spans="1:26" ht="8" customHeight="1">
-      <c r="A23" s="76" t="s">
+    <row r="23" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="34">
         <v>13737</v>
       </c>
@@ -5300,16 +5275,16 @@
       <c r="Y23" s="44">
         <v>119086</v>
       </c>
-      <c r="Z23" s="98">
+      <c r="Z23" s="61">
         <v>440696</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="8" customHeight="1">
-      <c r="A24" s="70" t="s">
+    <row r="24" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>159</v>
+      <c r="B24" s="84" t="s">
+        <v>155</v>
       </c>
       <c r="C24" s="12">
         <v>6409</v>
@@ -5323,7 +5298,7 @@
       <c r="F24" s="15">
         <v>7995</v>
       </c>
-      <c r="G24" s="90" t="s">
+      <c r="G24" s="86" t="s">
         <v>84</v>
       </c>
       <c r="H24" s="16">
@@ -5335,7 +5310,7 @@
       <c r="J24" s="18">
         <v>8556</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="88" t="s">
         <v>85</v>
       </c>
       <c r="L24" s="12">
@@ -5344,7 +5319,7 @@
       <c r="M24" s="19">
         <v>15467</v>
       </c>
-      <c r="N24" s="90" t="s">
+      <c r="N24" s="86" t="s">
         <v>86</v>
       </c>
       <c r="O24" s="16">
@@ -5362,7 +5337,7 @@
       <c r="S24" s="18">
         <v>3107</v>
       </c>
-      <c r="T24" s="90" t="s">
+      <c r="T24" s="86" t="s">
         <v>87</v>
       </c>
       <c r="U24" s="12">
@@ -5377,16 +5352,16 @@
       <c r="X24" s="15">
         <v>20727</v>
       </c>
-      <c r="Y24" s="74" t="s">
+      <c r="Y24" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="96" t="s">
+      <c r="Z24" s="90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="8" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73"/>
+    <row r="25" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="83"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="23">
         <v>6422</v>
       </c>
@@ -5399,7 +5374,7 @@
       <c r="F25" s="26">
         <v>8003</v>
       </c>
-      <c r="G25" s="91"/>
+      <c r="G25" s="87"/>
       <c r="H25" s="27">
         <v>5741</v>
       </c>
@@ -5409,14 +5384,14 @@
       <c r="J25" s="29">
         <v>8164</v>
       </c>
-      <c r="K25" s="75"/>
+      <c r="K25" s="89"/>
       <c r="L25" s="23">
         <v>12411</v>
       </c>
       <c r="M25" s="30">
         <v>15158</v>
       </c>
-      <c r="N25" s="91"/>
+      <c r="N25" s="87"/>
       <c r="O25" s="27">
         <v>6957</v>
       </c>
@@ -5432,7 +5407,7 @@
       <c r="S25" s="29">
         <v>3612</v>
       </c>
-      <c r="T25" s="91"/>
+      <c r="T25" s="87"/>
       <c r="U25" s="23">
         <v>9631</v>
       </c>
@@ -5445,14 +5420,14 @@
       <c r="X25" s="26">
         <v>19695</v>
       </c>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="97"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="91"/>
     </row>
-    <row r="26" spans="1:26" ht="8" customHeight="1">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="77"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="34">
         <v>12831</v>
       </c>
@@ -5522,16 +5497,16 @@
       <c r="Y26" s="44">
         <v>101260</v>
       </c>
-      <c r="Z26" s="98">
+      <c r="Z26" s="61">
         <v>382945</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="8" customHeight="1">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="72" t="s">
-        <v>160</v>
+      <c r="B27" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="12">
         <v>5517</v>
@@ -5545,7 +5520,7 @@
       <c r="F27" s="15">
         <v>6577</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="86" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="16">
@@ -5557,7 +5532,7 @@
       <c r="J27" s="18">
         <v>8089</v>
       </c>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="88" t="s">
         <v>93</v>
       </c>
       <c r="L27" s="12">
@@ -5566,7 +5541,7 @@
       <c r="M27" s="19">
         <v>13219</v>
       </c>
-      <c r="N27" s="90" t="s">
+      <c r="N27" s="86" t="s">
         <v>94</v>
       </c>
       <c r="O27" s="16">
@@ -5584,7 +5559,7 @@
       <c r="S27" s="18">
         <v>2162</v>
       </c>
-      <c r="T27" s="90" t="s">
+      <c r="T27" s="86" t="s">
         <v>95</v>
       </c>
       <c r="U27" s="12">
@@ -5599,16 +5574,16 @@
       <c r="X27" s="15">
         <v>16072</v>
       </c>
-      <c r="Y27" s="74" t="s">
+      <c r="Y27" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="Z27" s="96" t="s">
+      <c r="Z27" s="90" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="8" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="73"/>
+    <row r="28" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="83"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="23">
         <v>5884</v>
       </c>
@@ -5621,7 +5596,7 @@
       <c r="F28" s="26">
         <v>6793</v>
       </c>
-      <c r="G28" s="91"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="27">
         <v>5473</v>
       </c>
@@ -5631,14 +5606,14 @@
       <c r="J28" s="29">
         <v>7712</v>
       </c>
-      <c r="K28" s="75"/>
+      <c r="K28" s="89"/>
       <c r="L28" s="23">
         <v>9436</v>
       </c>
       <c r="M28" s="30">
         <v>13202</v>
       </c>
-      <c r="N28" s="91"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="27">
         <v>5937</v>
       </c>
@@ -5654,7 +5629,7 @@
       <c r="S28" s="29">
         <v>2863</v>
       </c>
-      <c r="T28" s="91"/>
+      <c r="T28" s="87"/>
       <c r="U28" s="23">
         <v>6779</v>
       </c>
@@ -5667,14 +5642,14 @@
       <c r="X28" s="26">
         <v>16763</v>
       </c>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="97"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="91"/>
     </row>
-    <row r="29" spans="1:26" ht="8" customHeight="1">
-      <c r="A29" s="76" t="s">
+    <row r="29" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="77"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="34">
         <v>11401</v>
       </c>
@@ -5744,16 +5719,16 @@
       <c r="Y29" s="44">
         <v>74109</v>
       </c>
-      <c r="Z29" s="98">
+      <c r="Z29" s="61">
         <v>309078</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="8" customHeight="1">
-      <c r="A30" s="70" t="s">
+    <row r="30" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="72" t="s">
-        <v>155</v>
+      <c r="B30" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="C30" s="12">
         <v>3015</v>
@@ -5767,7 +5742,7 @@
       <c r="F30" s="15">
         <v>4005</v>
       </c>
-      <c r="G30" s="90" t="s">
+      <c r="G30" s="86" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="16">
@@ -5779,7 +5754,7 @@
       <c r="J30" s="18">
         <v>5649</v>
       </c>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="88" t="s">
         <v>101</v>
       </c>
       <c r="L30" s="12">
@@ -5788,7 +5763,7 @@
       <c r="M30" s="19">
         <v>9302</v>
       </c>
-      <c r="N30" s="90" t="s">
+      <c r="N30" s="86" t="s">
         <v>102</v>
       </c>
       <c r="O30" s="16">
@@ -5806,7 +5781,7 @@
       <c r="S30" s="18">
         <v>1202</v>
       </c>
-      <c r="T30" s="90" t="s">
+      <c r="T30" s="86" t="s">
         <v>103</v>
       </c>
       <c r="U30" s="12">
@@ -5821,16 +5796,16 @@
       <c r="X30" s="15">
         <v>8361</v>
       </c>
-      <c r="Y30" s="74" t="s">
+      <c r="Y30" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="Z30" s="96" t="s">
+      <c r="Z30" s="90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="8" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73"/>
+    <row r="31" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="83"/>
+      <c r="B31" s="85"/>
       <c r="C31" s="23">
         <v>3436</v>
       </c>
@@ -5843,7 +5818,7 @@
       <c r="F31" s="26">
         <v>4081</v>
       </c>
-      <c r="G31" s="91"/>
+      <c r="G31" s="87"/>
       <c r="H31" s="27">
         <v>3812</v>
       </c>
@@ -5853,14 +5828,14 @@
       <c r="J31" s="29">
         <v>5511</v>
       </c>
-      <c r="K31" s="75"/>
+      <c r="K31" s="89"/>
       <c r="L31" s="23">
         <v>6383</v>
       </c>
       <c r="M31" s="30">
         <v>9458</v>
       </c>
-      <c r="N31" s="91"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="27">
         <v>4143</v>
       </c>
@@ -5876,7 +5851,7 @@
       <c r="S31" s="29">
         <v>1600</v>
       </c>
-      <c r="T31" s="91"/>
+      <c r="T31" s="87"/>
       <c r="U31" s="23">
         <v>3654</v>
       </c>
@@ -5889,14 +5864,14 @@
       <c r="X31" s="26">
         <v>10104</v>
       </c>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="97"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="91"/>
     </row>
-    <row r="32" spans="1:26" ht="8" customHeight="1">
-      <c r="A32" s="76" t="s">
+    <row r="32" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="77"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="34">
         <v>6451</v>
       </c>
@@ -5966,16 +5941,16 @@
       <c r="Y32" s="44">
         <v>40873</v>
       </c>
-      <c r="Z32" s="98">
+      <c r="Z32" s="61">
         <v>190933</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="8" customHeight="1">
-      <c r="A33" s="70" t="s">
+    <row r="33" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="72" t="s">
-        <v>161</v>
+      <c r="B33" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="12">
         <v>2333</v>
@@ -5989,7 +5964,7 @@
       <c r="F33" s="15">
         <v>3187</v>
       </c>
-      <c r="G33" s="90" t="s">
+      <c r="G33" s="86" t="s">
         <v>108</v>
       </c>
       <c r="H33" s="16">
@@ -6001,7 +5976,7 @@
       <c r="J33" s="18">
         <v>4878</v>
       </c>
-      <c r="K33" s="74" t="s">
+      <c r="K33" s="88" t="s">
         <v>109</v>
       </c>
       <c r="L33" s="12">
@@ -6010,7 +5985,7 @@
       <c r="M33" s="19">
         <v>8411</v>
       </c>
-      <c r="N33" s="90" t="s">
+      <c r="N33" s="86" t="s">
         <v>110</v>
       </c>
       <c r="O33" s="16">
@@ -6028,7 +6003,7 @@
       <c r="S33" s="21">
         <v>871</v>
       </c>
-      <c r="T33" s="90" t="s">
+      <c r="T33" s="86" t="s">
         <v>111</v>
       </c>
       <c r="U33" s="12">
@@ -6043,16 +6018,16 @@
       <c r="X33" s="15">
         <v>5582</v>
       </c>
-      <c r="Y33" s="74" t="s">
+      <c r="Y33" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="Z33" s="96" t="s">
+      <c r="Z33" s="90" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="8" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="73"/>
+    <row r="34" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="83"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="23">
         <v>2673</v>
       </c>
@@ -6065,7 +6040,7 @@
       <c r="F34" s="26">
         <v>3357</v>
       </c>
-      <c r="G34" s="91"/>
+      <c r="G34" s="87"/>
       <c r="H34" s="27">
         <v>3412</v>
       </c>
@@ -6075,14 +6050,14 @@
       <c r="J34" s="29">
         <v>5150</v>
       </c>
-      <c r="K34" s="75"/>
+      <c r="K34" s="89"/>
       <c r="L34" s="23">
         <v>6377</v>
       </c>
       <c r="M34" s="30">
         <v>10210</v>
       </c>
-      <c r="N34" s="91"/>
+      <c r="N34" s="87"/>
       <c r="O34" s="27">
         <v>3574</v>
       </c>
@@ -6098,7 +6073,7 @@
       <c r="S34" s="29">
         <v>1227</v>
       </c>
-      <c r="T34" s="91"/>
+      <c r="T34" s="87"/>
       <c r="U34" s="23">
         <v>2842</v>
       </c>
@@ -6111,14 +6086,14 @@
       <c r="X34" s="26">
         <v>7489</v>
       </c>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="97"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="91"/>
     </row>
-    <row r="35" spans="1:26" ht="8" customHeight="1">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="77"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="34">
         <v>5006</v>
       </c>
@@ -6188,16 +6163,16 @@
       <c r="Y35" s="44">
         <v>29983</v>
       </c>
-      <c r="Z35" s="98">
+      <c r="Z35" s="61">
         <v>158843</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="8" customHeight="1">
-      <c r="A36" s="78" t="s">
+    <row r="36" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="72" t="s">
-        <v>155</v>
+      <c r="B36" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="C36" s="12">
         <v>6417</v>
@@ -6211,7 +6186,7 @@
       <c r="F36" s="15">
         <v>10142</v>
       </c>
-      <c r="G36" s="90" t="s">
+      <c r="G36" s="86" t="s">
         <v>116</v>
       </c>
       <c r="H36" s="16">
@@ -6223,7 +6198,7 @@
       <c r="J36" s="18">
         <v>12985</v>
       </c>
-      <c r="K36" s="74" t="s">
+      <c r="K36" s="88" t="s">
         <v>117</v>
       </c>
       <c r="L36" s="12">
@@ -6232,7 +6207,7 @@
       <c r="M36" s="19">
         <v>24827</v>
       </c>
-      <c r="N36" s="90" t="s">
+      <c r="N36" s="86" t="s">
         <v>118</v>
       </c>
       <c r="O36" s="16">
@@ -6250,7 +6225,7 @@
       <c r="S36" s="18">
         <v>3200</v>
       </c>
-      <c r="T36" s="90" t="s">
+      <c r="T36" s="86" t="s">
         <v>119</v>
       </c>
       <c r="U36" s="12">
@@ -6265,16 +6240,16 @@
       <c r="X36" s="15">
         <v>16046</v>
       </c>
-      <c r="Y36" s="74" t="s">
+      <c r="Y36" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="Z36" s="96" t="s">
+      <c r="Z36" s="90" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="8" customHeight="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="73"/>
+    <row r="37" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="99"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="23">
         <v>6809</v>
       </c>
@@ -6287,7 +6262,7 @@
       <c r="F37" s="26">
         <v>9383</v>
       </c>
-      <c r="G37" s="91"/>
+      <c r="G37" s="87"/>
       <c r="H37" s="27">
         <v>8565</v>
       </c>
@@ -6297,14 +6272,14 @@
       <c r="J37" s="29">
         <v>12955</v>
       </c>
-      <c r="K37" s="75"/>
+      <c r="K37" s="89"/>
       <c r="L37" s="23">
         <v>19925</v>
       </c>
       <c r="M37" s="30">
         <v>25130</v>
       </c>
-      <c r="N37" s="91"/>
+      <c r="N37" s="87"/>
       <c r="O37" s="27">
         <v>7129</v>
       </c>
@@ -6320,7 +6295,7 @@
       <c r="S37" s="29">
         <v>2990</v>
       </c>
-      <c r="T37" s="91"/>
+      <c r="T37" s="87"/>
       <c r="U37" s="23">
         <v>6904</v>
       </c>
@@ -6333,14 +6308,14 @@
       <c r="X37" s="26">
         <v>15018</v>
       </c>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="97"/>
+      <c r="Y37" s="89"/>
+      <c r="Z37" s="91"/>
     </row>
-    <row r="38" spans="1:26" ht="8" customHeight="1">
-      <c r="A38" s="80" t="s">
+    <row r="38" spans="1:26" ht="8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="81"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="34">
         <v>13226</v>
       </c>
@@ -6410,16 +6385,16 @@
       <c r="Y38" s="44">
         <v>74034</v>
       </c>
-      <c r="Z38" s="98">
+      <c r="Z38" s="61">
         <v>414311</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" customHeight="1">
+    <row r="39" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>124</v>
@@ -6433,7 +6408,7 @@
       <c r="F39" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="G39" s="92" t="s">
+      <c r="G39" s="59" t="s">
         <v>128</v>
       </c>
       <c r="H39" s="46" t="s">
@@ -6454,7 +6429,7 @@
       <c r="M39" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="N39" s="92" t="s">
+      <c r="N39" s="59" t="s">
         <v>135</v>
       </c>
       <c r="O39" s="52" t="s">
@@ -6472,7 +6447,7 @@
       <c r="S39" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="T39" s="92" t="s">
+      <c r="T39" s="59" t="s">
         <v>141</v>
       </c>
       <c r="U39" s="46" t="s">
@@ -6490,31 +6465,39 @@
       <c r="Y39" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="Z39" s="99" t="s">
+      <c r="Z39" s="62" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="12" customHeight="1">
-      <c r="A40" s="82" t="s">
+    <row r="40" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="83"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="53">
         <v>107860</v>
       </c>
-      <c r="D40" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
+      <c r="D40" s="64">
+        <v>63505</v>
+      </c>
+      <c r="E40" s="64">
+        <v>315205</v>
+      </c>
+      <c r="F40" s="65">
+        <v>141087</v>
+      </c>
       <c r="G40" s="58">
         <v>627657</v>
       </c>
-      <c r="H40" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88"/>
+      <c r="H40" s="100">
+        <v>112914</v>
+      </c>
+      <c r="I40" s="66">
+        <v>163096</v>
+      </c>
+      <c r="J40" s="67">
+        <v>164326</v>
+      </c>
       <c r="K40" s="54">
         <v>440335</v>
       </c>
@@ -6536,51 +6519,54 @@
       <c r="Q40" s="57">
         <v>242590</v>
       </c>
-      <c r="R40" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="S40" s="85"/>
+      <c r="R40" s="102">
+        <v>260146</v>
+      </c>
+      <c r="S40" s="101">
+        <v>57434</v>
+      </c>
       <c r="T40" s="54">
         <v>943161</v>
       </c>
-      <c r="U40" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="88"/>
+      <c r="U40" s="100">
+        <v>147635</v>
+      </c>
+      <c r="V40" s="66">
+        <v>153860</v>
+      </c>
+      <c r="W40" s="66">
+        <v>194040</v>
+      </c>
+      <c r="X40" s="67">
+        <v>324670</v>
+      </c>
       <c r="Y40" s="58">
         <v>820205</v>
       </c>
-      <c r="Z40" s="100">
+      <c r="Z40" s="63">
         <v>3372007</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="117">
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="U40:X40"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="N36:N37"/>
-    <mergeCell ref="T36:T37"/>
     <mergeCell ref="Y36:Y37"/>
     <mergeCell ref="Z36:Z37"/>
     <mergeCell ref="A32:B32"/>
@@ -6592,6 +6578,7 @@
     <mergeCell ref="T33:T34"/>
     <mergeCell ref="Y33:Y34"/>
     <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
@@ -6692,10 +6679,5 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>